--- a/Bin/Data/Tables/SpawnRuleDefine.xlsx
+++ b/Bin/Data/Tables/SpawnRuleDefine.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1164,19 +1164,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1216,22 +1216,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1242,22 +1242,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1268,22 +1268,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
